--- a/RGC_electrical_properties.xlsx
+++ b/RGC_electrical_properties.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarah/Documents/repositories/AIS-geometry-and-axonal-current/Na currents in RGC/codes submission/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarah/Documents/repositories/AIS-geometry-and-axial-current/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6689E0F9-DD57-884F-9845-1960609F56F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE52C97-8941-C94B-8903-2029883B666A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="460" windowWidth="28460" windowHeight="14120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="80">
   <si>
     <t>Date</t>
   </si>
@@ -234,9 +234,6 @@
     <t>V holding (mV)</t>
   </si>
   <si>
-    <t>Cm CC 1ms</t>
-  </si>
-  <si>
     <t>Charge1 10</t>
   </si>
   <si>
@@ -255,9 +252,6 @@
     <t>Duration2 50</t>
   </si>
   <si>
-    <t>Cm CC 20 ms</t>
-  </si>
-  <si>
     <t>Threshold current raw</t>
   </si>
   <si>
@@ -271,6 +265,9 @@
   </si>
   <si>
     <t>Threshold current (nA)</t>
+  </si>
+  <si>
+    <t>Cm CC</t>
   </si>
 </sst>
 </file>
@@ -645,19 +642,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX24"/>
+  <dimension ref="A1:AW24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="4" width="10.83203125" style="5"/>
-    <col min="41" max="43" width="10.83203125" style="5"/>
+    <col min="40" max="42" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.2">
       <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
@@ -686,16 +683,16 @@
         <v>49</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>6</v>
@@ -728,37 +725,37 @@
         <v>53</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="Z1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="AF1" s="1" t="s">
         <v>69</v>
       </c>
       <c r="AG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI1" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="AJ1" s="1" t="s">
         <v>71</v>
@@ -770,40 +767,37 @@
         <v>73</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="AN1" s="8" t="s">
+        <v>0</v>
       </c>
       <c r="AO1" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ1" s="8" t="s">
         <v>2</v>
       </c>
+      <c r="AQ1" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="AR1" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AS1" s="7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AT1" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AU1" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AV1" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AW1" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -876,50 +870,50 @@
       <c r="X2">
         <v>90.068146462221407</v>
       </c>
-      <c r="AA2">
+      <c r="Z2">
         <v>61.765999999999998</v>
       </c>
+      <c r="AC2">
+        <v>-1.6853164527840401</v>
+      </c>
       <c r="AD2">
-        <v>-1.6853164527840401</v>
+        <v>-1.682995508153095</v>
       </c>
       <c r="AE2">
-        <v>-1.682995508153095</v>
+        <v>-1.3904609638290859</v>
       </c>
       <c r="AF2">
-        <v>-1.3904609638290859</v>
+        <v>-1.3758746066911689</v>
       </c>
       <c r="AG2">
-        <v>-1.3758746066911689</v>
+        <v>3.660000000000001</v>
       </c>
       <c r="AH2">
-        <v>3.660000000000001</v>
+        <v>2.62</v>
       </c>
       <c r="AI2">
-        <v>2.62</v>
+        <v>0.80700000000000127</v>
       </c>
       <c r="AJ2">
-        <v>0.80700000000000127</v>
+        <v>0.82500000000000062</v>
       </c>
       <c r="AK2">
-        <v>0.82500000000000062</v>
+        <v>0.46800000000000092</v>
       </c>
       <c r="AL2">
-        <v>0.46800000000000092</v>
-      </c>
-      <c r="AM2">
         <v>0.47100000000000047</v>
       </c>
-      <c r="AO2" s="9">
+      <c r="AN2" s="9">
         <v>20190321</v>
       </c>
-      <c r="AP2" s="9" t="s">
+      <c r="AO2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AQ2" s="9">
+      <c r="AP2" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <f>A2+1</f>
         <v>1</v>
@@ -994,61 +988,58 @@
         <v>93.696178251763541</v>
       </c>
       <c r="Y3">
-        <v>98.974654988640921</v>
+        <v>61.298545430519269</v>
       </c>
       <c r="Z3">
-        <v>61.298545430519269</v>
+        <v>85.263999999999996</v>
       </c>
       <c r="AA3">
-        <v>85.263999999999996</v>
+        <v>99.18212890625</v>
       </c>
       <c r="AB3">
-        <v>99.18212890625</v>
+        <v>235.748291015625</v>
       </c>
       <c r="AC3">
-        <v>235.748291015625</v>
+        <v>-0.98898384596709332</v>
       </c>
       <c r="AD3">
-        <v>-0.98898384596709332</v>
+        <v>-1.023688054002351</v>
       </c>
       <c r="AE3">
-        <v>-1.023688054002351</v>
+        <v>-0.90436735635750198</v>
       </c>
       <c r="AF3">
-        <v>-0.90436735635750198</v>
+        <v>-0.95901166696782847</v>
       </c>
       <c r="AG3">
-        <v>-0.95901166696782847</v>
+        <v>1.24</v>
       </c>
       <c r="AH3">
-        <v>1.24</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AI3">
-        <v>0.8600000000000001</v>
+        <v>0.5600000000000005</v>
       </c>
       <c r="AJ3">
-        <v>0.5600000000000005</v>
+        <v>0.58500000000000052</v>
       </c>
       <c r="AK3">
-        <v>0.58500000000000052</v>
+        <v>0.27800000000000019</v>
       </c>
       <c r="AL3">
-        <v>0.27800000000000019</v>
-      </c>
-      <c r="AM3">
         <v>0.28600000000000042</v>
       </c>
-      <c r="AO3" s="9">
+      <c r="AN3" s="9">
         <v>20190321</v>
       </c>
-      <c r="AP3" s="9" t="s">
+      <c r="AO3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AQ3" s="9">
+      <c r="AP3" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A21" si="0">A3+1</f>
         <v>2</v>
@@ -1123,61 +1114,58 @@
         <v>94.66341286634173</v>
       </c>
       <c r="Y4">
-        <v>74.957006268601418</v>
+        <v>49.021344454574269</v>
       </c>
       <c r="Z4">
-        <v>49.021344454574269</v>
+        <v>66.477000000000004</v>
       </c>
       <c r="AA4">
-        <v>66.477000000000004</v>
+        <v>199.73750305175781</v>
       </c>
       <c r="AB4">
-        <v>199.73750305175781</v>
+        <v>328.82693481445312</v>
       </c>
       <c r="AC4">
-        <v>328.82693481445312</v>
+        <v>-1.6156772156936621</v>
       </c>
       <c r="AD4">
-        <v>-1.6156772156936621</v>
+        <v>-1.557991781912853</v>
       </c>
       <c r="AE4">
-        <v>-1.557991781912853</v>
+        <v>-1.254956711201336</v>
       </c>
       <c r="AF4">
-        <v>-1.254956711201336</v>
+        <v>-1.2254094954433861</v>
       </c>
       <c r="AG4">
-        <v>-1.2254094954433861</v>
+        <v>2.4</v>
       </c>
       <c r="AH4">
-        <v>2.4</v>
+        <v>1.74</v>
       </c>
       <c r="AI4">
-        <v>1.74</v>
+        <v>0.75700000000000101</v>
       </c>
       <c r="AJ4">
-        <v>0.75700000000000101</v>
+        <v>0.74900000000000055</v>
       </c>
       <c r="AK4">
-        <v>0.74900000000000055</v>
+        <v>0.42900000000000033</v>
       </c>
       <c r="AL4">
-        <v>0.42900000000000033</v>
-      </c>
-      <c r="AM4">
         <v>0.42400000000000038</v>
       </c>
-      <c r="AO4" s="9">
+      <c r="AN4" s="9">
         <v>20190322</v>
       </c>
-      <c r="AP4" s="9" t="s">
+      <c r="AO4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AQ4" s="9">
+      <c r="AP4" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <f>A4+1</f>
         <v>3</v>
@@ -1252,80 +1240,77 @@
         <v>67.790704103775909</v>
       </c>
       <c r="Y5">
-        <v>56.248552300260677</v>
+        <v>39.422062934389892</v>
       </c>
       <c r="Z5">
-        <v>39.422062934389892</v>
+        <v>44.317999999999998</v>
       </c>
       <c r="AA5">
-        <v>44.317999999999998</v>
+        <v>124.2065811157227</v>
       </c>
       <c r="AB5">
-        <v>124.2065811157227</v>
+        <v>214.23341369628909</v>
       </c>
       <c r="AC5">
-        <v>214.23341369628909</v>
+        <v>-1.7797618216764839</v>
       </c>
       <c r="AD5">
-        <v>-1.7797618216764839</v>
+        <v>-1.7398162311440739</v>
       </c>
       <c r="AE5">
-        <v>-1.7398162311440739</v>
+        <v>-1.572634770696729</v>
       </c>
       <c r="AF5">
-        <v>-1.572634770696729</v>
+        <v>-1.5080078161165871</v>
       </c>
       <c r="AG5">
-        <v>-1.5080078161165871</v>
+        <v>2.62</v>
       </c>
       <c r="AH5">
-        <v>2.62</v>
+        <v>2.06</v>
       </c>
       <c r="AI5">
-        <v>2.06</v>
+        <v>0.84299999999999997</v>
       </c>
       <c r="AJ5">
-        <v>0.84299999999999997</v>
+        <v>0.81499999999999995</v>
       </c>
       <c r="AK5">
-        <v>0.81499999999999995</v>
+        <v>0.39000000000000012</v>
       </c>
       <c r="AL5">
-        <v>0.39000000000000012</v>
-      </c>
-      <c r="AM5">
         <v>0.38099999999999978</v>
       </c>
-      <c r="AO5" s="9">
+      <c r="AN5" s="9">
         <v>20190329</v>
       </c>
-      <c r="AP5" s="9" t="s">
+      <c r="AO5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="AQ5" s="9">
-        <v>1</v>
+      <c r="AP5" s="9">
+        <v>1</v>
+      </c>
+      <c r="AQ5" s="5">
+        <v>10.1</v>
       </c>
       <c r="AR5" s="5">
-        <v>10.1</v>
+        <v>33.659999999999997</v>
       </c>
       <c r="AS5" s="5">
-        <v>33.659999999999997</v>
+        <f>AR5-AQ5</f>
+        <v>23.559999999999995</v>
       </c>
       <c r="AT5" s="5">
-        <f>AS5-AR5</f>
-        <v>23.559999999999995</v>
+        <v>1.52</v>
       </c>
       <c r="AU5" s="5">
-        <v>1.52</v>
+        <v>1.02</v>
       </c>
       <c r="AV5" s="5">
-        <v>1.02</v>
-      </c>
-      <c r="AW5" s="5">
         <v>7.49</v>
       </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1396,75 +1381,75 @@
       <c r="X6">
         <v>72.610820714351689</v>
       </c>
+      <c r="Z6">
+        <v>61.283000000000001</v>
+      </c>
       <c r="AA6">
-        <v>61.283000000000001</v>
+        <v>199.127197265625</v>
       </c>
       <c r="AB6">
-        <v>199.127197265625</v>
+        <v>404.66311645507812</v>
       </c>
       <c r="AC6">
-        <v>404.66311645507812</v>
+        <v>-2.035368694617766</v>
       </c>
       <c r="AD6">
-        <v>-2.035368694617766</v>
+        <v>-1.9739087864617491</v>
       </c>
       <c r="AE6">
-        <v>-1.9739087864617491</v>
+        <v>-1.9445977759277611</v>
       </c>
       <c r="AF6">
-        <v>-1.9445977759277611</v>
+        <v>-1.9196823230792399</v>
       </c>
       <c r="AG6">
-        <v>-1.9196823230792399</v>
+        <v>1.98</v>
       </c>
       <c r="AH6">
-        <v>1.98</v>
+        <v>1.64</v>
       </c>
       <c r="AI6">
-        <v>1.64</v>
+        <v>0.68600000000000017</v>
       </c>
       <c r="AJ6">
-        <v>0.68600000000000017</v>
+        <v>0.70100000000000007</v>
       </c>
       <c r="AK6">
-        <v>0.70100000000000007</v>
+        <v>0.3859999999999999</v>
       </c>
       <c r="AL6">
-        <v>0.3859999999999999</v>
-      </c>
-      <c r="AM6">
         <v>0.3839999999999999</v>
       </c>
-      <c r="AO6" s="9">
+      <c r="AN6" s="9">
         <v>20190329</v>
       </c>
-      <c r="AP6" s="9" t="s">
+      <c r="AO6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AQ6" s="9">
-        <v>1</v>
+      <c r="AP6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AQ6" s="5">
+        <v>11.22</v>
       </c>
       <c r="AR6" s="5">
-        <v>11.22</v>
+        <v>35.520000000000003</v>
       </c>
       <c r="AS6" s="5">
-        <v>35.520000000000003</v>
+        <f t="shared" ref="AS6" si="1">AR6-AQ6</f>
+        <v>24.300000000000004</v>
       </c>
       <c r="AT6" s="5">
-        <f t="shared" ref="AT6" si="1">AS6-AR6</f>
-        <v>24.300000000000004</v>
+        <v>1.2</v>
       </c>
       <c r="AU6" s="5">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="AV6" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="AW6" s="5">
         <v>5.91</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1539,64 +1524,61 @@
         <v>103.7304113276531</v>
       </c>
       <c r="Y7">
-        <v>76.052908802896368</v>
+        <v>50.82838704502587</v>
       </c>
       <c r="Z7">
-        <v>50.82838704502587</v>
+        <v>41.284999999999997</v>
       </c>
       <c r="AA7">
-        <v>41.284999999999997</v>
+        <v>190.73486328125</v>
       </c>
       <c r="AB7">
-        <v>190.73486328125</v>
+        <v>209.04541015625</v>
       </c>
       <c r="AC7">
-        <v>209.04541015625</v>
+        <v>-2.241481068531197</v>
       </c>
       <c r="AD7">
-        <v>-2.241481068531197</v>
+        <v>-2.0669555120376861</v>
       </c>
       <c r="AE7">
-        <v>-2.0669555120376861</v>
+        <v>-1.878336601084964</v>
       </c>
       <c r="AF7">
-        <v>-1.878336601084964</v>
+        <v>-1.834117294808965</v>
       </c>
       <c r="AG7">
-        <v>-1.834117294808965</v>
+        <v>6.48</v>
       </c>
       <c r="AH7">
-        <v>6.48</v>
+        <v>3.74</v>
       </c>
       <c r="AI7">
-        <v>3.74</v>
+        <v>0.7970000000000006</v>
       </c>
       <c r="AJ7">
-        <v>0.7970000000000006</v>
+        <v>0.78299999999999992</v>
       </c>
       <c r="AK7">
-        <v>0.78299999999999992</v>
+        <v>0.40600000000000058</v>
       </c>
       <c r="AL7">
-        <v>0.40600000000000058</v>
+        <v>0.39599999999999952</v>
       </c>
       <c r="AM7">
-        <v>0.39599999999999952</v>
-      </c>
-      <c r="AN7">
         <v>-3.1323734319674501E-2</v>
       </c>
-      <c r="AO7" s="9">
+      <c r="AN7" s="9">
         <v>20190726</v>
       </c>
-      <c r="AP7" s="9" t="s">
+      <c r="AO7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="AQ7" s="9">
+      <c r="AP7" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1671,71 +1653,68 @@
         <v>91.692397379894857</v>
       </c>
       <c r="Y8">
-        <v>76.593138675529687</v>
+        <v>53.349689387962947</v>
       </c>
       <c r="Z8">
-        <v>53.349689387962947</v>
+        <v>58.54</v>
       </c>
       <c r="AA8">
-        <v>58.54</v>
+        <v>116.27199554443359</v>
       </c>
       <c r="AB8">
-        <v>116.27199554443359</v>
+        <v>201.56861877441409</v>
       </c>
       <c r="AC8">
-        <v>201.56861877441409</v>
+        <v>-2.1356497148126619</v>
       </c>
       <c r="AD8">
-        <v>-2.1356497148126619</v>
+        <v>-2.1259615299263031</v>
       </c>
       <c r="AE8">
-        <v>-2.1259615299263031</v>
+        <v>-1.895255119654282</v>
       </c>
       <c r="AF8">
-        <v>-1.895255119654282</v>
+        <v>-1.932218899067192</v>
       </c>
       <c r="AG8">
-        <v>-1.932218899067192</v>
+        <v>5.38</v>
       </c>
       <c r="AH8">
-        <v>5.38</v>
+        <v>4.8800000000000008</v>
       </c>
       <c r="AI8">
-        <v>4.8800000000000008</v>
+        <v>2.2290000000000001</v>
       </c>
       <c r="AJ8">
-        <v>2.2290000000000001</v>
+        <v>2.2360000000000011</v>
       </c>
       <c r="AK8">
-        <v>2.2360000000000011</v>
+        <v>0.91500000000000004</v>
       </c>
       <c r="AL8">
-        <v>0.91500000000000004</v>
+        <v>0.95000000000000018</v>
       </c>
       <c r="AM8">
-        <v>0.95000000000000018</v>
-      </c>
-      <c r="AN8">
         <v>-3.1875683059525532E-2</v>
       </c>
-      <c r="AO8" s="9">
+      <c r="AN8" s="9">
         <v>20190726</v>
       </c>
-      <c r="AP8" s="9" t="s">
+      <c r="AO8" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AQ8" s="9">
-        <v>1</v>
-      </c>
+      <c r="AP8" s="9">
+        <v>1</v>
+      </c>
+      <c r="AQ8" s="5"/>
       <c r="AR8" s="5"/>
       <c r="AS8" s="5"/>
       <c r="AT8" s="5"/>
       <c r="AU8" s="5"/>
       <c r="AV8" s="5"/>
       <c r="AW8" s="5"/>
-      <c r="AX8" s="5"/>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1810,84 +1789,81 @@
         <v>104.6040369492641</v>
       </c>
       <c r="Y9">
-        <v>69.459911824997391</v>
+        <v>58.207357964197158</v>
       </c>
       <c r="Z9">
-        <v>58.207357964197158</v>
+        <v>62.753999999999998</v>
       </c>
       <c r="AA9">
-        <v>62.753999999999998</v>
+        <v>165.10011291503909</v>
       </c>
       <c r="AB9">
-        <v>165.10011291503909</v>
+        <v>468.59747314453119</v>
       </c>
       <c r="AC9">
-        <v>468.59747314453119</v>
+        <v>-2.6644717702442779</v>
       </c>
       <c r="AD9">
-        <v>-2.6644717702442779</v>
+        <v>-2.1259724163557281</v>
       </c>
       <c r="AE9">
-        <v>-2.1259724163557281</v>
+        <v>-1.8917206459011531</v>
       </c>
       <c r="AF9">
-        <v>-1.8917206459011531</v>
+        <v>-1.9005607648828671</v>
       </c>
       <c r="AG9">
-        <v>-1.9005607648828671</v>
+        <v>2.9</v>
       </c>
       <c r="AH9">
-        <v>2.9</v>
+        <v>1.92</v>
       </c>
       <c r="AI9">
-        <v>1.92</v>
+        <v>0.65200000000000014</v>
       </c>
       <c r="AJ9">
-        <v>0.65200000000000014</v>
+        <v>0.66399999999999992</v>
       </c>
       <c r="AK9">
-        <v>0.66399999999999992</v>
+        <v>0.33199999999999991</v>
       </c>
       <c r="AL9">
-        <v>0.33199999999999991</v>
+        <v>0.32700000000000018</v>
       </c>
       <c r="AM9">
-        <v>0.32700000000000018</v>
-      </c>
-      <c r="AN9">
         <v>-0.12420322686714121</v>
       </c>
-      <c r="AO9" s="9">
+      <c r="AN9" s="9">
         <v>20191031</v>
       </c>
-      <c r="AP9" s="9" t="s">
+      <c r="AO9" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="AQ9" s="9">
-        <v>1</v>
+      <c r="AP9" s="9">
+        <v>1</v>
+      </c>
+      <c r="AQ9" s="5">
+        <v>6.84</v>
       </c>
       <c r="AR9" s="5">
-        <v>6.84</v>
+        <v>29.85</v>
       </c>
       <c r="AS9" s="5">
-        <v>29.85</v>
+        <f t="shared" ref="AS9:AS11" si="2">AR9-AQ9</f>
+        <v>23.01</v>
       </c>
       <c r="AT9" s="5">
-        <f t="shared" ref="AT9:AT11" si="2">AS9-AR9</f>
-        <v>23.01</v>
+        <v>0.78</v>
       </c>
       <c r="AU9" s="5">
-        <v>0.78</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="AV9" s="5">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="AW9" s="5">
         <v>9.74</v>
       </c>
-      <c r="AX9" s="5"/>
+      <c r="AW9" s="5"/>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1962,84 +1938,81 @@
         <v>104.8537236512491</v>
       </c>
       <c r="Y10">
-        <v>90.119944273806411</v>
+        <v>75.777428722333354</v>
       </c>
       <c r="Z10">
-        <v>75.777428722333354</v>
+        <v>80.043000000000006</v>
       </c>
       <c r="AA10">
-        <v>80.043000000000006</v>
+        <v>201.11091613769531</v>
       </c>
       <c r="AB10">
-        <v>201.11091613769531</v>
+        <v>290.52737426757812</v>
       </c>
       <c r="AC10">
-        <v>290.52737426757812</v>
+        <v>-3.0717640479141801</v>
       </c>
       <c r="AD10">
-        <v>-3.0717640479141801</v>
+        <v>-3.0542355653265272</v>
       </c>
       <c r="AE10">
-        <v>-3.0542355653265272</v>
+        <v>-2.8094935151406091</v>
       </c>
       <c r="AF10">
-        <v>-2.8094935151406091</v>
+        <v>-2.7733557806381128</v>
       </c>
       <c r="AG10">
-        <v>-2.7733557806381128</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="AH10">
-        <v>2.2599999999999998</v>
+        <v>2.02</v>
       </c>
       <c r="AI10">
-        <v>2.02</v>
+        <v>0.79599999999999982</v>
       </c>
       <c r="AJ10">
-        <v>0.79599999999999982</v>
+        <v>0.79000000000000026</v>
       </c>
       <c r="AK10">
-        <v>0.79000000000000026</v>
+        <v>0.44999999999999968</v>
       </c>
       <c r="AL10">
-        <v>0.44999999999999968</v>
+        <v>0.43999999999999972</v>
       </c>
       <c r="AM10">
-        <v>0.43999999999999972</v>
-      </c>
-      <c r="AN10">
         <v>-3.6215528686743742E-2</v>
       </c>
-      <c r="AO10" s="9">
+      <c r="AN10" s="9">
         <v>20191114</v>
       </c>
-      <c r="AP10" s="9" t="s">
+      <c r="AO10" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AQ10" s="9">
-        <v>1</v>
+      <c r="AP10" s="9">
+        <v>1</v>
+      </c>
+      <c r="AQ10" s="5">
+        <v>10.36</v>
       </c>
       <c r="AR10" s="5">
-        <v>10.36</v>
+        <v>45.12</v>
       </c>
       <c r="AS10" s="5">
-        <v>45.12</v>
-      </c>
-      <c r="AT10" s="5">
         <f t="shared" si="2"/>
         <v>34.76</v>
       </c>
+      <c r="AT10" s="5">
+        <v>0.98</v>
+      </c>
       <c r="AU10" s="5">
-        <v>0.98</v>
+        <v>0.61</v>
       </c>
       <c r="AV10" s="5">
-        <v>0.61</v>
-      </c>
-      <c r="AW10" s="5">
         <v>13.42</v>
       </c>
-      <c r="AX10" s="5"/>
+      <c r="AW10" s="5"/>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2114,84 +2087,81 @@
         <v>92.364499506220682</v>
       </c>
       <c r="Y11">
-        <v>69.397111376155493</v>
+        <v>48.151038422459607</v>
       </c>
       <c r="Z11">
-        <v>48.151038422459607</v>
+        <v>46.142000000000003</v>
       </c>
       <c r="AA11">
-        <v>46.142000000000003</v>
+        <v>124.81687927246089</v>
       </c>
       <c r="AB11">
-        <v>124.81687927246089</v>
+        <v>219.42140197753909</v>
       </c>
       <c r="AC11">
-        <v>219.42140197753909</v>
+        <v>-2.320749639180693</v>
       </c>
       <c r="AD11">
-        <v>-2.320749639180693</v>
+        <v>-2.265139915063469</v>
       </c>
       <c r="AE11">
-        <v>-2.265139915063469</v>
+        <v>-2.0620117629541959</v>
       </c>
       <c r="AF11">
-        <v>-2.0620117629541959</v>
+        <v>-2.094406467279065</v>
       </c>
       <c r="AG11">
-        <v>-2.094406467279065</v>
+        <v>2.04</v>
       </c>
       <c r="AH11">
-        <v>2.04</v>
+        <v>0.92</v>
       </c>
       <c r="AI11">
-        <v>0.92</v>
+        <v>0.61999999999999988</v>
       </c>
       <c r="AJ11">
-        <v>0.61999999999999988</v>
+        <v>0.61899999999999999</v>
       </c>
       <c r="AK11">
-        <v>0.61899999999999999</v>
+        <v>0.30699999999999988</v>
       </c>
       <c r="AL11">
-        <v>0.30699999999999988</v>
+        <v>0.29999999999999988</v>
       </c>
       <c r="AM11">
-        <v>0.29999999999999988</v>
-      </c>
-      <c r="AN11">
         <v>-0.1081530993670809</v>
       </c>
-      <c r="AO11" s="9">
+      <c r="AN11" s="9">
         <v>20191115</v>
       </c>
-      <c r="AP11" s="9" t="s">
+      <c r="AO11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AQ11" s="9">
+      <c r="AP11" s="9">
         <v>2</v>
       </c>
+      <c r="AQ11" s="5">
+        <v>6.05</v>
+      </c>
       <c r="AR11" s="5">
-        <v>6.05</v>
+        <v>43.63</v>
       </c>
       <c r="AS11" s="5">
-        <v>43.63</v>
-      </c>
-      <c r="AT11" s="5">
         <f t="shared" si="2"/>
         <v>37.580000000000005</v>
       </c>
+      <c r="AT11" s="5">
+        <v>1.29</v>
+      </c>
       <c r="AU11" s="5">
-        <v>1.29</v>
+        <v>0.76</v>
       </c>
       <c r="AV11" s="5">
-        <v>0.76</v>
-      </c>
-      <c r="AW11" s="5">
         <v>2.85</v>
       </c>
-      <c r="AX11" s="5"/>
+      <c r="AW11" s="5"/>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2267,71 +2237,68 @@
         <v>91.824654022476764</v>
       </c>
       <c r="Y12">
-        <v>75.077925178213917</v>
+        <v>44.522232150745857</v>
       </c>
       <c r="Z12">
-        <v>44.522232150745857</v>
+        <v>85.263999999999996</v>
       </c>
       <c r="AA12">
-        <v>85.263999999999996</v>
+        <v>146.17927551269531</v>
       </c>
       <c r="AB12">
-        <v>146.17927551269531</v>
+        <v>222.3205871582031</v>
       </c>
       <c r="AC12">
-        <v>222.3205871582031</v>
+        <v>-1.7966081043215709</v>
       </c>
       <c r="AD12">
-        <v>-1.7966081043215709</v>
+        <v>-1.801281915393216</v>
       </c>
       <c r="AE12">
-        <v>-1.801281915393216</v>
+        <v>-1.6823086259413389</v>
       </c>
       <c r="AF12">
-        <v>-1.6823086259413389</v>
+        <v>-1.6888433594162471</v>
       </c>
       <c r="AG12">
-        <v>-1.6888433594162471</v>
+        <v>1.28</v>
       </c>
       <c r="AH12">
-        <v>1.28</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AI12">
-        <v>1.1000000000000001</v>
+        <v>0.71799999999999997</v>
       </c>
       <c r="AJ12">
-        <v>0.71799999999999997</v>
+        <v>0.73299999999999998</v>
       </c>
       <c r="AK12">
-        <v>0.73299999999999998</v>
+        <v>0.33700000000000002</v>
       </c>
       <c r="AL12">
-        <v>0.33700000000000002</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="AM12">
-        <v>0.33500000000000002</v>
-      </c>
-      <c r="AN12">
         <v>-5.1100164655478897E-2</v>
       </c>
-      <c r="AO12" s="9">
+      <c r="AN12" s="9">
         <v>20191121</v>
       </c>
-      <c r="AP12" s="9" t="s">
+      <c r="AO12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="AQ12" s="9">
-        <v>1</v>
-      </c>
+      <c r="AP12" s="9">
+        <v>1</v>
+      </c>
+      <c r="AQ12" s="5"/>
       <c r="AR12" s="5"/>
       <c r="AS12" s="5"/>
       <c r="AT12" s="5"/>
       <c r="AU12" s="5"/>
       <c r="AV12" s="5"/>
       <c r="AW12" s="5"/>
-      <c r="AX12" s="5"/>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2407,84 +2374,81 @@
         <v>109.8952168298256</v>
       </c>
       <c r="Y13">
-        <v>71.146343676624113</v>
+        <v>55.439095507438907</v>
       </c>
       <c r="Z13">
-        <v>55.439095507438907</v>
+        <v>87.158000000000001</v>
       </c>
       <c r="AA13">
-        <v>87.158000000000001</v>
+        <v>96.435569763183594</v>
       </c>
       <c r="AB13">
-        <v>96.435569763183594</v>
+        <v>179.74851989746091</v>
       </c>
       <c r="AC13">
-        <v>179.74851989746091</v>
+        <v>-2.137272206723452</v>
       </c>
       <c r="AD13">
-        <v>-2.137272206723452</v>
+        <v>-1.5837097442852499</v>
       </c>
       <c r="AE13">
-        <v>-1.5837097442852499</v>
+        <v>-1.5295231628672601</v>
       </c>
       <c r="AF13">
-        <v>-1.5295231628672601</v>
+        <v>-1.4230063336665399</v>
       </c>
       <c r="AG13">
-        <v>-1.4230063336665399</v>
+        <v>2.9</v>
       </c>
       <c r="AH13">
-        <v>2.9</v>
+        <v>2.38</v>
       </c>
       <c r="AI13">
-        <v>2.38</v>
+        <v>0.84600000000000009</v>
       </c>
       <c r="AJ13">
-        <v>0.84600000000000009</v>
+        <v>0.81299999999999972</v>
       </c>
       <c r="AK13">
-        <v>0.81299999999999972</v>
+        <v>0.45200000000000001</v>
       </c>
       <c r="AL13">
-        <v>0.45200000000000001</v>
+        <v>0.43500000000000011</v>
       </c>
       <c r="AM13">
-        <v>0.43500000000000011</v>
-      </c>
-      <c r="AN13">
         <v>-3.3158755247464443E-2</v>
       </c>
-      <c r="AO13" s="9">
+      <c r="AN13" s="9">
         <v>20191122</v>
       </c>
-      <c r="AP13" s="9" t="s">
+      <c r="AO13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="AQ13" s="9">
-        <v>1</v>
+      <c r="AP13" s="9">
+        <v>1</v>
+      </c>
+      <c r="AQ13" s="5">
+        <v>9.57</v>
       </c>
       <c r="AR13" s="5">
-        <v>9.57</v>
+        <v>35.03</v>
       </c>
       <c r="AS13" s="5">
-        <v>35.03</v>
+        <f t="shared" ref="AS13:AS17" si="3">AR13-AQ13</f>
+        <v>25.46</v>
       </c>
       <c r="AT13" s="5">
-        <f t="shared" ref="AT13:AT17" si="3">AS13-AR13</f>
-        <v>25.46</v>
+        <v>0.94</v>
       </c>
       <c r="AU13" s="5">
-        <v>0.94</v>
+        <v>0.72</v>
       </c>
       <c r="AV13" s="5">
-        <v>0.72</v>
-      </c>
-      <c r="AW13" s="5">
         <v>11</v>
       </c>
-      <c r="AX13" s="5"/>
+      <c r="AW13" s="5"/>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2560,81 +2524,78 @@
         <v>91.27259277050112</v>
       </c>
       <c r="Y14">
-        <v>84.849375151068372</v>
+        <v>81.565578935122559</v>
       </c>
       <c r="Z14">
-        <v>81.565578935122559</v>
+        <v>85.263999999999996</v>
       </c>
       <c r="AA14">
-        <v>85.263999999999996</v>
+        <v>162.65875244140619</v>
       </c>
       <c r="AB14">
-        <v>162.65875244140619</v>
+        <v>465.39312744140619</v>
       </c>
       <c r="AC14">
-        <v>465.39312744140619</v>
+        <v>-2.4038571296334328</v>
       </c>
       <c r="AD14">
-        <v>-2.4038571296334328</v>
+        <v>-2.38992316047102</v>
       </c>
       <c r="AE14">
-        <v>-2.38992316047102</v>
+        <v>-2.315163778923933</v>
       </c>
       <c r="AF14">
-        <v>-2.315163778923933</v>
+        <v>-2.3269744419246221</v>
       </c>
       <c r="AG14">
-        <v>-2.3269744419246221</v>
+        <v>2.1</v>
       </c>
       <c r="AH14">
-        <v>2.1</v>
+        <v>1.36</v>
       </c>
       <c r="AI14">
-        <v>1.36</v>
+        <v>0.70700000000000007</v>
       </c>
       <c r="AJ14">
-        <v>0.70700000000000007</v>
+        <v>0.70200000000000018</v>
       </c>
       <c r="AK14">
-        <v>0.70200000000000018</v>
+        <v>0.371</v>
       </c>
       <c r="AL14">
-        <v>0.371</v>
-      </c>
-      <c r="AM14">
         <v>0.33500000000000002</v>
       </c>
-      <c r="AO14" s="9">
+      <c r="AN14" s="9">
         <v>20200213</v>
       </c>
-      <c r="AP14" s="9" t="s">
+      <c r="AO14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AQ14" s="9">
-        <v>1</v>
+      <c r="AP14" s="9">
+        <v>1</v>
+      </c>
+      <c r="AQ14" s="10">
+        <v>16.239999999999998</v>
       </c>
       <c r="AR14" s="10">
-        <v>16.239999999999998</v>
+        <v>50.25</v>
       </c>
       <c r="AS14" s="10">
-        <v>50.25</v>
-      </c>
-      <c r="AT14" s="10">
         <f t="shared" si="3"/>
         <v>34.010000000000005</v>
       </c>
+      <c r="AT14" s="10">
+        <v>0.64</v>
+      </c>
       <c r="AU14" s="10">
-        <v>0.64</v>
+        <v>0.35</v>
       </c>
       <c r="AV14" s="10">
-        <v>0.35</v>
-      </c>
-      <c r="AW14" s="10">
         <v>46.13</v>
       </c>
-      <c r="AX14" s="5"/>
+      <c r="AW14" s="5"/>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2707,81 +2668,78 @@
         <v>91.696187569503351</v>
       </c>
       <c r="Y15">
-        <v>69.745447715695875</v>
+        <v>53.543861906227448</v>
       </c>
       <c r="Z15">
-        <v>53.543861906227448</v>
+        <v>51.948999999999998</v>
       </c>
       <c r="AA15">
-        <v>51.948999999999998</v>
+        <v>99.33477783203125</v>
       </c>
       <c r="AB15">
-        <v>99.33477783203125</v>
+        <v>282.89797973632812</v>
       </c>
       <c r="AC15">
-        <v>282.89797973632812</v>
+        <v>-1.2462593903779871</v>
       </c>
       <c r="AD15">
-        <v>-1.2462593903779871</v>
+        <v>-1.2473508252371439</v>
       </c>
       <c r="AE15">
-        <v>-1.2473508252371439</v>
+        <v>-1.1453626522624381</v>
       </c>
       <c r="AF15">
-        <v>-1.1453626522624381</v>
+        <v>-1.1655882268366029</v>
       </c>
       <c r="AG15">
-        <v>-1.1655882268366029</v>
+        <v>1.32</v>
       </c>
       <c r="AH15">
-        <v>1.32</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AI15">
-        <v>0.8600000000000001</v>
+        <v>0.62200000000000011</v>
       </c>
       <c r="AJ15">
-        <v>0.62200000000000011</v>
+        <v>0.62400000000000011</v>
       </c>
       <c r="AK15">
-        <v>0.62400000000000011</v>
+        <v>0.31699999999999989</v>
       </c>
       <c r="AL15">
-        <v>0.31699999999999989</v>
-      </c>
-      <c r="AM15">
         <v>0.30399999999999988</v>
       </c>
-      <c r="AO15" s="9">
+      <c r="AN15" s="9">
         <v>20200214</v>
       </c>
-      <c r="AP15" s="9" t="s">
+      <c r="AO15" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AQ15" s="9">
-        <v>1</v>
+      <c r="AP15" s="9">
+        <v>1</v>
+      </c>
+      <c r="AQ15" s="5">
+        <v>5.2</v>
       </c>
       <c r="AR15" s="5">
-        <v>5.2</v>
+        <v>37.36</v>
       </c>
       <c r="AS15" s="5">
-        <v>37.36</v>
-      </c>
-      <c r="AT15" s="5">
         <f t="shared" si="3"/>
         <v>32.159999999999997</v>
       </c>
+      <c r="AT15" s="5">
+        <v>0.77</v>
+      </c>
       <c r="AU15" s="5">
-        <v>0.77</v>
+        <v>0.31</v>
       </c>
       <c r="AV15" s="5">
-        <v>0.31</v>
-      </c>
-      <c r="AW15" s="5">
         <v>13.09</v>
       </c>
-      <c r="AX15" s="5"/>
+      <c r="AW15" s="5"/>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2854,84 +2812,81 @@
         <v>84.939223139399232</v>
       </c>
       <c r="Y16">
-        <v>72.722312498644825</v>
+        <v>64.442148104972716</v>
       </c>
       <c r="Z16">
-        <v>64.442148104972716</v>
+        <v>72.632000000000005</v>
       </c>
       <c r="AA16">
-        <v>72.632000000000005</v>
+        <v>127.56353759765619</v>
       </c>
       <c r="AB16">
-        <v>127.56353759765619</v>
+        <v>95.062271118164062</v>
       </c>
       <c r="AC16">
-        <v>95.062271118164062</v>
+        <v>-2.5373830637049348</v>
       </c>
       <c r="AD16">
-        <v>-2.5373830637049348</v>
+        <v>-2.512827484128398</v>
       </c>
       <c r="AE16">
-        <v>-2.512827484128398</v>
+        <v>-2.3997824347567591</v>
       </c>
       <c r="AF16">
-        <v>-2.3997824347567591</v>
+        <v>-2.378240476437421</v>
       </c>
       <c r="AG16">
-        <v>-2.378240476437421</v>
+        <v>1.32</v>
       </c>
       <c r="AH16">
-        <v>1.32</v>
+        <v>1.18</v>
       </c>
       <c r="AI16">
-        <v>1.18</v>
+        <v>0.621</v>
       </c>
       <c r="AJ16">
-        <v>0.621</v>
+        <v>0.63600000000000012</v>
       </c>
       <c r="AK16">
-        <v>0.63600000000000012</v>
+        <v>0.35000000000000009</v>
       </c>
       <c r="AL16">
-        <v>0.35000000000000009</v>
+        <v>0.35599999999999993</v>
       </c>
       <c r="AM16">
-        <v>0.35599999999999993</v>
-      </c>
-      <c r="AN16">
         <v>-8.4764131310814159E-2</v>
       </c>
-      <c r="AO16" s="9">
+      <c r="AN16" s="9">
         <v>20200220</v>
       </c>
-      <c r="AP16" s="9" t="s">
+      <c r="AO16" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="AQ16" s="9">
-        <v>1</v>
+      <c r="AP16" s="9">
+        <v>1</v>
+      </c>
+      <c r="AQ16" s="5">
+        <v>8.25</v>
       </c>
       <c r="AR16" s="5">
-        <v>8.25</v>
+        <v>49.8</v>
       </c>
       <c r="AS16" s="5">
-        <v>49.8</v>
-      </c>
-      <c r="AT16" s="5">
         <f t="shared" si="3"/>
         <v>41.55</v>
       </c>
+      <c r="AT16" s="5">
+        <v>0.66</v>
+      </c>
       <c r="AU16" s="5">
-        <v>0.66</v>
+        <v>0.38</v>
       </c>
       <c r="AV16" s="5">
-        <v>0.38</v>
-      </c>
-      <c r="AW16" s="5">
         <v>16.18</v>
       </c>
-      <c r="AX16" s="5"/>
+      <c r="AW16" s="5"/>
     </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3004,78 +2959,75 @@
         <v>82.226156642039641</v>
       </c>
       <c r="Y17">
-        <v>73.423463267703937</v>
+        <v>58.87800323435723</v>
       </c>
       <c r="Z17">
-        <v>58.87800323435723</v>
-      </c>
-      <c r="AA17">
         <v>87.158000000000001</v>
       </c>
+      <c r="AC17">
+        <v>-2.108064889947812</v>
+      </c>
       <c r="AD17">
-        <v>-2.108064889947812</v>
+        <v>-2.1159442949777318</v>
       </c>
       <c r="AE17">
-        <v>-2.1159442949777318</v>
+        <v>-1.9340285177217229</v>
       </c>
       <c r="AF17">
-        <v>-1.9340285177217229</v>
+        <v>-1.950505632297121</v>
       </c>
       <c r="AG17">
-        <v>-1.950505632297121</v>
+        <v>1.9</v>
       </c>
       <c r="AH17">
-        <v>1.9</v>
+        <v>1.76</v>
       </c>
       <c r="AI17">
-        <v>1.76</v>
+        <v>0.76100000000000012</v>
       </c>
       <c r="AJ17">
-        <v>0.76100000000000012</v>
+        <v>0.77899999999999991</v>
       </c>
       <c r="AK17">
-        <v>0.77899999999999991</v>
+        <v>0.39500000000000002</v>
       </c>
       <c r="AL17">
-        <v>0.39500000000000002</v>
+        <v>0.39799999999999969</v>
       </c>
       <c r="AM17">
-        <v>0.39799999999999969</v>
-      </c>
-      <c r="AN17">
         <v>-0.10901437983279701</v>
       </c>
-      <c r="AO17" s="9">
+      <c r="AN17" s="9">
         <v>20200221</v>
       </c>
-      <c r="AP17" s="9" t="s">
+      <c r="AO17" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="AQ17" s="9">
-        <v>1</v>
+      <c r="AP17" s="9">
+        <v>1</v>
+      </c>
+      <c r="AQ17" s="5">
+        <v>11.39</v>
       </c>
       <c r="AR17" s="5">
-        <v>11.39</v>
+        <v>39.119999999999997</v>
       </c>
       <c r="AS17" s="5">
-        <v>39.119999999999997</v>
-      </c>
-      <c r="AT17" s="5">
         <f t="shared" si="3"/>
         <v>27.729999999999997</v>
       </c>
+      <c r="AT17" s="5">
+        <v>0.94</v>
+      </c>
       <c r="AU17" s="5">
-        <v>0.94</v>
+        <v>0.35</v>
       </c>
       <c r="AV17" s="5">
-        <v>0.35</v>
-      </c>
-      <c r="AW17" s="5">
         <v>18.239999999999998</v>
       </c>
-      <c r="AX17" s="5"/>
+      <c r="AW17" s="5"/>
     </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3148,78 +3100,75 @@
         <v>73.794764312712019</v>
       </c>
       <c r="Y18">
-        <v>81.810809692288871</v>
+        <v>68.233274695503425</v>
       </c>
       <c r="Z18">
-        <v>68.233274695503425</v>
-      </c>
-      <c r="AA18">
         <v>70.037999999999997</v>
       </c>
+      <c r="AC18">
+        <v>-2.210671267589142</v>
+      </c>
       <c r="AD18">
-        <v>-2.210671267589142</v>
+        <v>-2.1137987650608081</v>
       </c>
       <c r="AE18">
-        <v>-2.1137987650608081</v>
+        <v>-1.995817991958468</v>
       </c>
       <c r="AF18">
-        <v>-1.995817991958468</v>
+        <v>-1.979715577092104</v>
       </c>
       <c r="AG18">
-        <v>-1.979715577092104</v>
+        <v>1.76</v>
       </c>
       <c r="AH18">
-        <v>1.76</v>
+        <v>1.32</v>
       </c>
       <c r="AI18">
-        <v>1.32</v>
+        <v>0.69199999999999995</v>
       </c>
       <c r="AJ18">
-        <v>0.69199999999999995</v>
+        <v>0.71100000000000008</v>
       </c>
       <c r="AK18">
-        <v>0.71100000000000008</v>
+        <v>0.36199999999999988</v>
       </c>
       <c r="AL18">
-        <v>0.36199999999999988</v>
+        <v>0.34899999999999998</v>
       </c>
       <c r="AM18">
-        <v>0.34899999999999998</v>
-      </c>
-      <c r="AN18">
         <v>-9.7661185573793927E-2</v>
       </c>
-      <c r="AO18" s="9">
+      <c r="AN18" s="9">
         <v>20200222</v>
       </c>
-      <c r="AP18" s="9" t="s">
+      <c r="AO18" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="AQ18" s="9">
-        <v>1</v>
+      <c r="AP18" s="9">
+        <v>1</v>
+      </c>
+      <c r="AQ18" s="5">
+        <v>8.4499999999999993</v>
       </c>
       <c r="AR18" s="5">
-        <v>8.4499999999999993</v>
+        <v>39.840000000000003</v>
       </c>
       <c r="AS18" s="5">
-        <v>39.840000000000003</v>
+        <f t="shared" ref="AS18:AS19" si="4">AR18-AQ18</f>
+        <v>31.390000000000004</v>
       </c>
       <c r="AT18" s="5">
-        <f t="shared" ref="AT18:AT19" si="4">AS18-AR18</f>
-        <v>31.390000000000004</v>
+        <v>0.76</v>
       </c>
       <c r="AU18" s="5">
-        <v>0.76</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="AV18" s="5">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="AW18" s="5">
         <v>11.66</v>
       </c>
-      <c r="AX18" s="5"/>
+      <c r="AW18" s="5"/>
     </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3291,73 +3240,73 @@
       <c r="X19">
         <v>74.456159407847949</v>
       </c>
-      <c r="AA19">
+      <c r="Z19">
         <v>53.362000000000002</v>
       </c>
+      <c r="AC19">
+        <v>-2.784760062858604</v>
+      </c>
       <c r="AD19">
-        <v>-2.784760062858604</v>
+        <v>-2.7252841183875351</v>
       </c>
       <c r="AE19">
-        <v>-2.7252841183875351</v>
+        <v>-2.6068081083888499</v>
       </c>
       <c r="AF19">
-        <v>-2.6068081083888499</v>
+        <v>-2.5574894670291188</v>
       </c>
       <c r="AG19">
-        <v>-2.5574894670291188</v>
+        <v>1.52</v>
       </c>
       <c r="AH19">
-        <v>1.52</v>
+        <v>1.24</v>
       </c>
       <c r="AI19">
-        <v>1.24</v>
+        <v>0.63600000000000012</v>
       </c>
       <c r="AJ19">
-        <v>0.63600000000000012</v>
+        <v>0.63500000000000001</v>
       </c>
       <c r="AK19">
-        <v>0.63500000000000001</v>
+        <v>0.29900000000000021</v>
       </c>
       <c r="AL19">
-        <v>0.29900000000000021</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="AM19">
-        <v>0.29599999999999999</v>
-      </c>
-      <c r="AN19">
         <v>-0.1053759523456444</v>
       </c>
-      <c r="AO19" s="9">
+      <c r="AN19" s="9">
         <v>20200222</v>
       </c>
-      <c r="AP19" s="9" t="s">
+      <c r="AO19" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AQ19" s="9">
-        <v>1</v>
+      <c r="AP19" s="9">
+        <v>1</v>
+      </c>
+      <c r="AQ19" s="5">
+        <v>3.84</v>
       </c>
       <c r="AR19" s="5">
-        <v>3.84</v>
+        <v>44.93</v>
       </c>
       <c r="AS19" s="5">
-        <v>44.93</v>
-      </c>
-      <c r="AT19" s="5">
         <f t="shared" si="4"/>
         <v>41.09</v>
       </c>
+      <c r="AT19" s="5">
+        <v>1.1200000000000001</v>
+      </c>
       <c r="AU19" s="5">
-        <v>1.1200000000000001</v>
+        <v>0.48</v>
       </c>
       <c r="AV19" s="5">
-        <v>0.48</v>
-      </c>
-      <c r="AW19" s="5">
         <v>1.92</v>
       </c>
-      <c r="AX19" s="5"/>
+      <c r="AW19" s="5"/>
     </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3430,84 +3379,81 @@
         <v>99.324311390103546</v>
       </c>
       <c r="Y20">
-        <v>71.193263543536673</v>
+        <v>62.641874149991096</v>
       </c>
       <c r="Z20">
-        <v>62.641874149991096</v>
+        <v>68.210999999999999</v>
       </c>
       <c r="AA20">
-        <v>68.210999999999999</v>
+        <v>145.26368713378909</v>
       </c>
       <c r="AB20">
-        <v>145.26368713378909</v>
+        <v>402.22174072265619</v>
       </c>
       <c r="AC20">
-        <v>402.22174072265619</v>
+        <v>-2.233768678738639</v>
       </c>
       <c r="AD20">
-        <v>-2.233768678738639</v>
+        <v>-2.1673271119395001</v>
       </c>
       <c r="AE20">
-        <v>-2.1673271119395001</v>
+        <v>-2.0276780381430228</v>
       </c>
       <c r="AF20">
-        <v>-2.0276780381430228</v>
+        <v>-2.0058227895273801</v>
       </c>
       <c r="AG20">
-        <v>-2.0058227895273801</v>
+        <v>2.02</v>
       </c>
       <c r="AH20">
-        <v>2.02</v>
+        <v>1.52</v>
       </c>
       <c r="AI20">
-        <v>1.52</v>
+        <v>0.60899999999999976</v>
       </c>
       <c r="AJ20">
-        <v>0.60899999999999976</v>
+        <v>0.60699999999999998</v>
       </c>
       <c r="AK20">
-        <v>0.60699999999999998</v>
+        <v>0.31600000000000011</v>
       </c>
       <c r="AL20">
-        <v>0.31600000000000011</v>
+        <v>0.32300000000000018</v>
       </c>
       <c r="AM20">
-        <v>0.32300000000000018</v>
-      </c>
-      <c r="AN20">
         <v>-7.7011013335559972E-2</v>
       </c>
-      <c r="AO20" s="9">
+      <c r="AN20" s="9">
         <v>20200227</v>
       </c>
-      <c r="AP20" s="9" t="s">
+      <c r="AO20" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AQ20" s="9">
-        <v>1</v>
+      <c r="AP20" s="9">
+        <v>1</v>
+      </c>
+      <c r="AQ20" s="10">
+        <v>9.61</v>
       </c>
       <c r="AR20" s="10">
-        <v>9.61</v>
+        <v>41.93</v>
       </c>
       <c r="AS20" s="10">
-        <v>41.93</v>
+        <f t="shared" ref="AS20:AS21" si="5">AR20-AQ20</f>
+        <v>32.32</v>
       </c>
       <c r="AT20" s="10">
-        <f t="shared" ref="AT20:AT21" si="5">AS20-AR20</f>
-        <v>32.32</v>
+        <v>0.85</v>
       </c>
       <c r="AU20" s="10">
-        <v>0.85</v>
+        <v>0.41</v>
       </c>
       <c r="AV20" s="10">
-        <v>0.41</v>
-      </c>
-      <c r="AW20" s="10">
         <v>14.85</v>
       </c>
-      <c r="AX20" s="5"/>
+      <c r="AW20" s="5"/>
     </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3580,116 +3526,113 @@
         <v>105.9386551451577</v>
       </c>
       <c r="Y21">
-        <v>69.940249014791931</v>
+        <v>58.103361687149082</v>
       </c>
       <c r="Z21">
-        <v>58.103361687149082</v>
+        <v>73.311000000000007</v>
       </c>
       <c r="AA21">
-        <v>73.311000000000007</v>
+        <v>128.173828125</v>
       </c>
       <c r="AB21">
-        <v>128.173828125</v>
+        <v>322.11306762695312</v>
       </c>
       <c r="AC21">
-        <v>322.11306762695312</v>
+        <v>-1.9725454669140821</v>
       </c>
       <c r="AD21">
-        <v>-1.9725454669140821</v>
+        <v>-1.8746076030189129</v>
       </c>
       <c r="AE21">
-        <v>-1.8746076030189129</v>
+        <v>-1.7290415140962561</v>
       </c>
       <c r="AF21">
-        <v>-1.7290415140962561</v>
+        <v>-1.74385593106075</v>
       </c>
       <c r="AG21">
-        <v>-1.74385593106075</v>
+        <v>1.34</v>
       </c>
       <c r="AH21">
-        <v>1.34</v>
+        <v>0.54</v>
       </c>
       <c r="AI21">
-        <v>0.54</v>
+        <v>0.66100000000000003</v>
       </c>
       <c r="AJ21">
-        <v>0.66100000000000003</v>
+        <v>0.71099999999999997</v>
       </c>
       <c r="AK21">
-        <v>0.71099999999999997</v>
+        <v>0.31399999999999978</v>
       </c>
       <c r="AL21">
-        <v>0.31399999999999978</v>
+        <v>0.307</v>
       </c>
       <c r="AM21">
-        <v>0.307</v>
-      </c>
-      <c r="AN21">
         <v>-0.14419097986421231</v>
       </c>
-      <c r="AO21" s="9">
+      <c r="AN21" s="9">
         <v>20200228</v>
       </c>
-      <c r="AP21" s="9" t="s">
+      <c r="AO21" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="AQ21" s="9">
-        <v>1</v>
+      <c r="AP21" s="9">
+        <v>1</v>
+      </c>
+      <c r="AQ21" s="10">
+        <v>2.88</v>
       </c>
       <c r="AR21" s="10">
-        <v>2.88</v>
+        <v>29.35</v>
       </c>
       <c r="AS21" s="10">
-        <v>29.35</v>
-      </c>
-      <c r="AT21" s="10">
         <f t="shared" si="5"/>
         <v>26.470000000000002</v>
       </c>
+      <c r="AT21" s="10">
+        <v>0.49</v>
+      </c>
       <c r="AU21" s="10">
-        <v>0.49</v>
+        <v>0.31</v>
       </c>
       <c r="AV21" s="10">
-        <v>0.31</v>
-      </c>
-      <c r="AW21" s="10">
         <v>7.69</v>
       </c>
-      <c r="AX21" s="5"/>
+      <c r="AW21" s="5"/>
     </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AQ22" s="5"/>
       <c r="AR22" s="5"/>
       <c r="AS22" s="5"/>
       <c r="AT22" s="5"/>
       <c r="AU22" s="5"/>
       <c r="AV22" s="5"/>
       <c r="AW22" s="5"/>
-      <c r="AX22" s="5"/>
     </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AT23">
+        <f>AVERAGE(AT5:AT21)</f>
+        <v>0.92428571428571438</v>
+      </c>
       <c r="AU23">
         <f>AVERAGE(AU5:AU21)</f>
-        <v>0.92428571428571438</v>
-      </c>
-      <c r="AV23">
-        <f>AVERAGE(AV5:AV21)</f>
         <v>0.53857142857142848</v>
       </c>
     </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:49" x14ac:dyDescent="0.2">
       <c r="Q24" t="s">
         <v>59</v>
       </c>
-      <c r="AB24">
-        <f>AVERAGE(AB2:AB21)</f>
+      <c r="AA24">
+        <f>AVERAGE(AA2:AA21)</f>
         <v>145.36860036849976</v>
+      </c>
+      <c r="AT24">
+        <f>STDEVA(AT5:AT21)</f>
+        <v>0.28051365757822211</v>
       </c>
       <c r="AU24">
         <f>STDEVA(AU5:AU21)</f>
-        <v>0.28051365757822211</v>
-      </c>
-      <c r="AV24">
-        <f>STDEVA(AV5:AV21)</f>
         <v>0.20898498815638747</v>
       </c>
     </row>
